--- a/begrippen.xlsx
+++ b/begrippen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.trouborst\Documents\01GEO\98 GIT\imka-scope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FD6B94-AF05-403D-AD83-C2C547677F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FC97C-1F37-4C8C-96EE-30383DE52FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{54443515-4541-451B-982C-62B30C5FBE9B}"/>
   </bookViews>
@@ -37,21 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
-    <t xml:space="preserve"> Begrip </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afkorting </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Definitie </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Toelichting </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bron </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -128,6 +113,21 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begrip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afkorting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toelichting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bron </t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,192 +511,192 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
